--- a/results/data/CDW2.1.xlsx
+++ b/results/data/CDW2.1.xlsx
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>648508.6910000001</v>
+        <v>648508.6910000012</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>551913.8109999996</v>
+        <v>551913.8109999999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5549954.618000043</v>
+        <v>5899112.385000021</v>
       </c>
     </row>
   </sheetData>

--- a/results/data/CDW2.1.xlsx
+++ b/results/data/CDW2.1.xlsx
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>648508.6910000012</v>
+        <v>649588.9520000012</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>551913.8109999999</v>
+        <v>661363.669</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5899112.385000021</v>
+        <v>5506793.430000035</v>
       </c>
     </row>
   </sheetData>
